--- a/biology/Médecine/Centre_hospitalier_de_Kourou/Centre_hospitalier_de_Kourou.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_Kourou/Centre_hospitalier_de_Kourou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre Hospitalier de Kourou (abrégé en CHK) est un établissement public de santé situé dans la ville de Kourou en Guyane.
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1965, le Centre Hospitalier de Kourou est un dispensaire de premiers soins pour les personnels de la base spatiale et les habitants de Kourou.
 En 1983, l’Association Médico-Chirurgicale de Kourou (AMCK) reçoit les autorisations d’exploitation  jusqu’alors détenues par le CNES.
 En 1984, l’AMCK signe avec la Croix-Rouge française une convention déléguant à cette dernière la gestion  de l’hôpital.
-En 2004, la Croix-Rouge française obtient les autorisations sanitaires et la propriété des équipements, biens et immeubles du Centre Hospitalier de Kourou[1].
+En 2004, la Croix-Rouge française obtient les autorisations sanitaires et la propriété des équipements, biens et immeubles du Centre Hospitalier de Kourou.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2022, le centre hospitalier de Kourou propose la polysomnographie pour aider à diagnostiquer l'apnée du sommeil, souvent associée au diabète dont la prévalence est forte en Guyane[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2022, le centre hospitalier de Kourou propose la polysomnographie pour aider à diagnostiquer l'apnée du sommeil, souvent associée au diabète dont la prévalence est forte en Guyane,.
 </t>
         </is>
       </c>
